--- a/Design/pinmap.xlsx
+++ b/Design/pinmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Enes\SmartCar\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8D527C-9954-45E0-830F-37455F9F308F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915975C0-D7C5-4D7D-987D-0598201821D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21C910A0-C4BA-4ED2-BDEF-B6A143B6589B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>İşlemci</t>
   </si>
@@ -201,30 +201,6 @@
     <t>OUT</t>
   </si>
   <si>
-    <t>Motor BL1</t>
-  </si>
-  <si>
-    <t>Motor BL2</t>
-  </si>
-  <si>
-    <t>Motor BR1</t>
-  </si>
-  <si>
-    <t>Motor BR2</t>
-  </si>
-  <si>
-    <t>Motor FL1</t>
-  </si>
-  <si>
-    <t>Motor FL2</t>
-  </si>
-  <si>
-    <t>Motor FR1</t>
-  </si>
-  <si>
-    <t>Motor FR2</t>
-  </si>
-  <si>
     <t>Wire1</t>
   </si>
   <si>
@@ -238,6 +214,33 @@
   </si>
   <si>
     <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Motor L2</t>
+  </si>
+  <si>
+    <t>Motor L1</t>
+  </si>
+  <si>
+    <t>Motor R1</t>
+  </si>
+  <si>
+    <t>Motor R2</t>
+  </si>
+  <si>
+    <t>F ECHO</t>
+  </si>
+  <si>
+    <t>F TRIG</t>
+  </si>
+  <si>
+    <t>B TRIG</t>
+  </si>
+  <si>
+    <t>B ECHO</t>
+  </si>
+  <si>
+    <t>Back HL</t>
   </si>
 </sst>
 </file>
@@ -920,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72128E52-0C0E-4B84-AC8D-E796181E61F1}">
   <dimension ref="B1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1069,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1116,7 +1119,9 @@
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="23"/>
@@ -1130,7 +1135,9 @@
       <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="22"/>
@@ -1144,7 +1151,9 @@
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="23"/>
@@ -1158,7 +1167,9 @@
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="22"/>
@@ -1284,9 +1295,7 @@
       <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="24"/>
@@ -1300,9 +1309,7 @@
       <c r="D24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="25"/>
@@ -1317,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1333,7 +1340,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -1377,9 +1384,11 @@
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="24"/>
       <c r="I29" s="15"/>
@@ -1393,9 +1402,11 @@
         <v>26</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="25"/>
       <c r="I30" s="16"/>
@@ -1445,9 +1456,11 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="24"/>
       <c r="I33" s="15"/>
@@ -1461,9 +1474,11 @@
         <v>30</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="25"/>
       <c r="I34" s="16"/>
@@ -1477,9 +1492,11 @@
         <v>31</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="24"/>
       <c r="I35" s="15"/>
@@ -1493,9 +1510,11 @@
         <v>32</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="G36" s="8"/>
       <c r="H36" s="26"/>
       <c r="I36" s="17"/>
@@ -1508,9 +1527,7 @@
       <c r="D37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="24"/>
@@ -1524,9 +1541,7 @@
       <c r="D38" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="25"/>
@@ -1541,9 +1556,11 @@
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="24"/>
       <c r="I39" s="15"/>
@@ -1556,8 +1573,12 @@
       <c r="D40" s="18">
         <v>13</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G40" s="19"/>
       <c r="H40" s="27"/>
       <c r="I40" s="20"/>

--- a/Design/pinmap.xlsx
+++ b/Design/pinmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Enes\SmartCar\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915975C0-D7C5-4D7D-987D-0598201821D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45BF52-F1A4-4D03-8A5A-C518695DBDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21C910A0-C4BA-4ED2-BDEF-B6A143B6589B}"/>
   </bookViews>
@@ -923,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72128E52-0C0E-4B84-AC8D-E796181E61F1}">
   <dimension ref="B1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/pinmap.xlsx
+++ b/Design/pinmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Enes\SmartCar\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A45BF52-F1A4-4D03-8A5A-C518695DBDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E54CD1-022E-4937-A233-400C95960839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21C910A0-C4BA-4ED2-BDEF-B6A143B6589B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
   <si>
     <t>İşlemci</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Görev</t>
   </si>
   <si>
-    <t>Tür</t>
-  </si>
-  <si>
     <t>Renk</t>
   </si>
   <si>
@@ -183,15 +180,9 @@
     <t>IN</t>
   </si>
   <si>
-    <t>Analog</t>
-  </si>
-  <si>
     <t>BATTERY</t>
   </si>
   <si>
-    <t>Durum</t>
-  </si>
-  <si>
     <t>Signal R</t>
   </si>
   <si>
@@ -241,6 +232,183 @@
   </si>
   <si>
     <t>Back HL</t>
+  </si>
+  <si>
+    <t>Kod</t>
+  </si>
+  <si>
+    <t>Başlangıç</t>
+  </si>
+  <si>
+    <t>Bitiş</t>
+  </si>
+  <si>
+    <t>APW</t>
+  </si>
+  <si>
+    <t>pembe</t>
+  </si>
+  <si>
+    <t>mavi</t>
+  </si>
+  <si>
+    <t>sarı</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>Ard Vin</t>
+  </si>
+  <si>
+    <t>Ard gnd</t>
+  </si>
+  <si>
+    <t>Ard Aref</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>yeşil</t>
+  </si>
+  <si>
+    <t>Esp D1</t>
+  </si>
+  <si>
+    <t>Esp D2</t>
+  </si>
+  <si>
+    <t>Ard Sck</t>
+  </si>
+  <si>
+    <t>Ard Scl</t>
+  </si>
+  <si>
+    <t>Arduino Besleme</t>
+  </si>
+  <si>
+    <t>Arduino toprak</t>
+  </si>
+  <si>
+    <t>Arduino Analog Referans</t>
+  </si>
+  <si>
+    <t>Esp-Arduino Haberleşme</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>Gri</t>
+  </si>
+  <si>
+    <t>Yeşil</t>
+  </si>
+  <si>
+    <t>Ard A0</t>
+  </si>
+  <si>
+    <t>Ldr analog okuma</t>
+  </si>
+  <si>
+    <t>Ard A1</t>
+  </si>
+  <si>
+    <t>Bat Pin</t>
+  </si>
+  <si>
+    <t>Batarya seviyesi analog okuma</t>
+  </si>
+  <si>
+    <t>FDs</t>
+  </si>
+  <si>
+    <t>kırmızı</t>
+  </si>
+  <si>
+    <t>kahverengi</t>
+  </si>
+  <si>
+    <t>Ard 2</t>
+  </si>
+  <si>
+    <t>Ard 3</t>
+  </si>
+  <si>
+    <t>Hcsr vcc</t>
+  </si>
+  <si>
+    <t>hcsr trig</t>
+  </si>
+  <si>
+    <t>hcsr echo</t>
+  </si>
+  <si>
+    <t>hcsr gnd</t>
+  </si>
+  <si>
+    <t>BDs</t>
+  </si>
+  <si>
+    <t>Ard 12</t>
+  </si>
+  <si>
+    <t>Ard 13</t>
+  </si>
+  <si>
+    <t>Ön mesafe ölçümü</t>
+  </si>
+  <si>
+    <t>arka mesafe ölçümü</t>
+  </si>
+  <si>
+    <t>FLg</t>
+  </si>
+  <si>
+    <t>beyaz</t>
+  </si>
+  <si>
+    <t>Ard 4</t>
+  </si>
+  <si>
+    <t>Ard 5</t>
+  </si>
+  <si>
+    <t>Sol sinyal lambası</t>
+  </si>
+  <si>
+    <t>Sağ sinyal Lambası</t>
+  </si>
+  <si>
+    <t>Ard 6</t>
+  </si>
+  <si>
+    <t>Far lambası</t>
+  </si>
+  <si>
+    <t>ön lambaları yakar</t>
+  </si>
+  <si>
+    <t>BLg</t>
+  </si>
+  <si>
+    <t>Ard 9</t>
+  </si>
+  <si>
+    <t>arka farlar</t>
+  </si>
+  <si>
+    <t>geri ışığı</t>
+  </si>
+  <si>
+    <t>Ard 8</t>
+  </si>
+  <si>
+    <t>Arka ışıkları yakar</t>
   </si>
 </sst>
 </file>
@@ -353,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -488,45 +656,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -547,7 +676,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
@@ -581,15 +710,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -599,6 +719,11 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="%20 - Vurgu5" xfId="3" builtinId="46"/>
@@ -921,29 +1046,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72128E52-0C0E-4B84-AC8D-E796181E61F1}">
-  <dimension ref="B1:I40"/>
+  <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L22" sqref="L22:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -951,604 +1074,798 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>45</v>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
+      <c r="F3" s="13"/>
+      <c r="H3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="F4" s="14"/>
+      <c r="H4" s="24"/>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="H5" s="24"/>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="H6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="H7" s="24"/>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="H8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
       <c r="C9" s="2">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="H9" s="24"/>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="H10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="H11" s="24"/>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
       <c r="C12" s="4">
         <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
+        <v>57</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="H12" s="24"/>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
       <c r="C13" s="2">
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
+        <v>59</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="H13" s="24"/>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
       <c r="C14" s="4">
         <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="H14" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
       <c r="C15" s="2">
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="H15" s="24"/>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
       <c r="C16" s="4">
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="14"/>
+      <c r="H16" s="24"/>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="24"/>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="14"/>
+      <c r="H18" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="24"/>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="14"/>
+      <c r="H20" s="24"/>
+      <c r="I20" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="21"/>
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="8" t="s">
+      <c r="F22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="24"/>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="8" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="16"/>
+      <c r="H24" s="24"/>
+      <c r="I24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="21"/>
+      <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="H25" s="24"/>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="H26" s="24"/>
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
       <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
       <c r="C28" s="8">
         <v>1</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
       <c r="C29" s="6">
         <v>2</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
+        <v>62</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="21"/>
       <c r="C30" s="8">
         <v>3</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+        <v>61</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="21"/>
       <c r="C31" s="6">
         <v>4</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="21"/>
       <c r="C32" s="8">
         <v>5</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
+        <v>49</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
       <c r="C33" s="6">
         <v>6</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
       <c r="C34" s="8">
         <v>7</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
       <c r="C35" s="6">
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
+      <c r="F35" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
       <c r="C36" s="8">
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
       <c r="C37" s="6">
         <v>10</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="21"/>
       <c r="C38" s="8">
         <v>11</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
       <c r="C39" s="6">
         <v>12</v>
       </c>
@@ -1556,17 +1873,14 @@
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="22"/>
       <c r="C40" s="18">
         <v>13</v>
       </c>
@@ -1574,19 +1888,27 @@
         <v>13</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="13">
+    <mergeCell ref="L22:L26"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="L18:L21"/>
     <mergeCell ref="B21:B40"/>
     <mergeCell ref="B3:B20"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="H22:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Design/pinmap.xlsx
+++ b/Design/pinmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Enes\SmartCar\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E54CD1-022E-4937-A233-400C95960839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19897093-C04D-4A83-A0FC-848F1746A1A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21C910A0-C4BA-4ED2-BDEF-B6A143B6589B}"/>
+    <workbookView xWindow="3450" yWindow="3975" windowWidth="21600" windowHeight="11385" xr2:uid="{21C910A0-C4BA-4ED2-BDEF-B6A143B6589B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
   <si>
     <t>İşlemci</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Arka ışıkları yakar</t>
+  </si>
+  <si>
+    <t>STBY</t>
   </si>
 </sst>
 </file>
@@ -710,6 +713,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -719,11 +727,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="%20 - Vurgu5" xfId="3" builtinId="46"/>
@@ -1049,7 +1052,7 @@
   <dimension ref="B1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:L26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1102,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1110,7 +1113,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="13"/>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
@@ -1127,16 +1130,18 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="F4" s="14"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="23"/>
       <c r="I4" t="s">
         <v>71</v>
       </c>
@@ -1151,7 +1156,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="H5" s="24"/>
+      <c r="H5" s="23"/>
       <c r="I5" t="s">
         <v>72</v>
       </c>
@@ -1177,7 +1182,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="4">
         <v>2</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>78</v>
       </c>
       <c r="I6" t="s">
@@ -1205,7 +1210,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" t="s">
         <v>79</v>
       </c>
@@ -1231,7 +1236,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4">
         <v>4</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>88</v>
       </c>
       <c r="I8" t="s">
@@ -1259,7 +1264,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2">
         <v>5</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9" t="s">
         <v>90</v>
       </c>
@@ -1285,7 +1290,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>96</v>
       </c>
       <c r="I10" t="s">
@@ -1308,12 +1313,12 @@
       <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2">
         <v>10</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="23"/>
       <c r="I11" t="s">
         <v>70</v>
       </c>
@@ -1334,10 +1339,10 @@
       <c r="K11" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="4">
         <v>12</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="23"/>
       <c r="I12" t="s">
         <v>89</v>
       </c>
@@ -1358,10 +1363,10 @@
       <c r="K12" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="24"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="2">
         <v>13</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="23"/>
       <c r="I13" t="s">
         <v>98</v>
       </c>
@@ -1382,10 +1387,10 @@
       <c r="K13" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="24"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="4">
         <v>14</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>105</v>
       </c>
       <c r="I14" t="s">
@@ -1408,12 +1413,12 @@
       <c r="K14" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="2">
         <v>15</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
       <c r="I15" t="s">
         <v>70</v>
       </c>
@@ -1434,10 +1439,10 @@
       <c r="K15" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4">
         <v>16</v>
       </c>
@@ -1446,7 +1451,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="14"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="23"/>
       <c r="I16" t="s">
         <v>89</v>
       </c>
@@ -1456,10 +1461,10 @@
       <c r="K16" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1468,7 +1473,7 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="13"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
       <c r="I17" t="s">
         <v>98</v>
       </c>
@@ -1478,10 +1483,10 @@
       <c r="K17" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="24"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1490,7 +1495,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="14"/>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="23" t="s">
         <v>110</v>
       </c>
       <c r="I18" t="s">
@@ -1502,12 +1507,12 @@
       <c r="K18" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1516,7 +1521,7 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="13"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="23"/>
       <c r="I19" t="s">
         <v>72</v>
       </c>
@@ -1526,10 +1531,10 @@
       <c r="K19" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="24"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1538,7 +1543,7 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="14"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="23"/>
       <c r="I20" t="s">
         <v>111</v>
       </c>
@@ -1548,10 +1553,10 @@
       <c r="K20" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1566,20 +1571,20 @@
       <c r="F21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25" t="s">
+      <c r="H21" s="23"/>
+      <c r="I21" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="21" t="s">
         <v>74</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
@@ -1592,10 +1597,10 @@
       <c r="F22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="22" t="s">
         <v>72</v>
       </c>
       <c r="J22" t="s">
@@ -1604,12 +1609,12 @@
       <c r="K22" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1623,7 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="15"/>
-      <c r="H23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" t="s">
         <v>72</v>
       </c>
@@ -1628,10 +1633,10 @@
       <c r="K23" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1645,7 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="16"/>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
       <c r="I24" t="s">
         <v>97</v>
       </c>
@@ -1650,10 +1655,10 @@
       <c r="K24" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" t="s">
         <v>79</v>
       </c>
@@ -1674,10 +1679,10 @@
       <c r="K25" t="s">
         <v>122</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="H26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" t="s">
         <v>98</v>
       </c>
@@ -1698,10 +1703,10 @@
       <c r="K26" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="6">
         <v>0</v>
       </c>
@@ -1712,7 +1717,7 @@
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="8">
         <v>1</v>
       </c>
@@ -1723,7 +1728,7 @@
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="6">
         <v>2</v>
       </c>
@@ -1738,7 +1743,7 @@
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="8">
         <v>3</v>
       </c>
@@ -1753,7 +1758,7 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="6">
         <v>4</v>
       </c>
@@ -1768,7 +1773,7 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="8">
         <v>5</v>
       </c>
@@ -1783,7 +1788,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="6">
         <v>6</v>
       </c>
@@ -1798,7 +1803,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="8">
         <v>7</v>
       </c>
@@ -1813,7 +1818,7 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="6">
         <v>8</v>
       </c>
@@ -1828,7 +1833,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="8">
         <v>9</v>
       </c>
@@ -1843,7 +1848,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="6">
         <v>10</v>
       </c>
@@ -1854,7 +1859,7 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="8">
         <v>11</v>
       </c>
@@ -1865,7 +1870,7 @@
       <c r="F38" s="16"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="6">
         <v>12</v>
       </c>
@@ -1880,7 +1885,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="18">
         <v>13</v>
       </c>
@@ -1896,12 +1901,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L22:L26"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="L18:L21"/>
     <mergeCell ref="B21:B40"/>
     <mergeCell ref="B3:B20"/>
     <mergeCell ref="H3:H5"/>
@@ -1909,6 +1908,12 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="H22:H26"/>
+    <mergeCell ref="L22:L26"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="L18:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
